--- a/schedule/concrete_pump/putzmeister.xlsx
+++ b/schedule/concrete_pump/putzmeister.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\concrete_maintenance_app\schedule\concrete_pump\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD0789F-7A2F-4F1B-9D8C-2DA21C2C462A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9873E3A5-A222-44C2-AB57-F14CE1F2E205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="707" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="707" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="daily" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="114">
   <si>
     <t>Task</t>
   </si>
@@ -198,6 +198,180 @@
   </si>
   <si>
     <t>Placing boom: Transmission: Full oil change agitator gearbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOR THE TRUCK PART: </t>
+  </si>
+  <si>
+    <t>Check coolant level: Via expansion tank under the maintenance flap</t>
+  </si>
+  <si>
+    <t>Inspect washer fluid level: Top up if low</t>
+  </si>
+  <si>
+    <t>Check tyres: Visual inspection for wear, damage, and pressure</t>
+  </si>
+  <si>
+    <t>Look for oil or fuel leaks: Around engine and under truck</t>
+  </si>
+  <si>
+    <t>Inspect lights and indicators: Functionality and lens condition</t>
+  </si>
+  <si>
+    <t>Observe dash warnings: Use on-board computer to review alerts</t>
+  </si>
+  <si>
+    <t>Drain air tanks (if in humid regions): Prevents water in brake lines</t>
+  </si>
+  <si>
+    <t>Check engine oil level: Wait 5+ minutes after shutting off engine</t>
+  </si>
+  <si>
+    <t>Check clutch fluid: Must be between min/max marks</t>
+  </si>
+  <si>
+    <t>Inspect batteries: Surface and terminals clean and secure</t>
+  </si>
+  <si>
+    <t>Clean cab air grille and step areas: Prevent slip hazards and airflow issues</t>
+  </si>
+  <si>
+    <t>Check windshield wiper blades: Replace if worn</t>
+  </si>
+  <si>
+    <t>Check and grease wheel nuts: Apply rust-penetrating oil</t>
+  </si>
+  <si>
+    <t>Inspect fuel system: Hoses, clamps, and filters for leaks</t>
+  </si>
+  <si>
+    <t>Check AdBlue level: Prevent derating of engine</t>
+  </si>
+  <si>
+    <t>Examine air filter housing: Especially if truck works in dusty areas</t>
+  </si>
+  <si>
+    <t>Check for corrosion under the chassis: Especially air/hydraulic lines</t>
+  </si>
+  <si>
+    <t>Engine oil + filter change: Or per on-board service interval</t>
+  </si>
+  <si>
+    <t>Fuel filters replacement: Both main and water separator if equipped</t>
+  </si>
+  <si>
+    <t>Brake system check: Pads, wear sensors, fluid, and pressure lines</t>
+  </si>
+  <si>
+    <t>Transmission &amp; differential oil: Inspect or replace if needed</t>
+  </si>
+  <si>
+    <t>Replace air filter: Especially after dusty operation</t>
+  </si>
+  <si>
+    <t>Check coolant quality: Freeze protection and PH</t>
+  </si>
+  <si>
+    <t>Cab tilting system inspection: Electro/mechanical hydraulics</t>
+  </si>
+  <si>
+    <t>Visual check: engine, undercarriage, leaks</t>
+  </si>
+  <si>
+    <t>Battery terminals clean, inspect clutch &amp; brake fluid</t>
+  </si>
+  <si>
+    <t>Truck: Drain water separator, inspect air intake/filter</t>
+  </si>
+  <si>
+    <t>Truck: Full oil service, fuel filter, brake inspection, drivetrain (propshaft, U-joints</t>
+  </si>
+  <si>
+    <t>Lubricate the rear portion of the pump.</t>
+  </si>
+  <si>
+    <t>Verify oil levels within the pump and water levels in the wash box.</t>
+  </si>
+  <si>
+    <t>Examine the truck’s alternator, lug nuts and belts.</t>
+  </si>
+  <si>
+    <t>Ensure all bolts securing the truck to its frame are securely tightened to maintain structural integrity.</t>
+  </si>
+  <si>
+    <t>Thoroughly lubricate the entire boom, ensuring the turret receives just the right amount of grease, avoiding over- or under-greasing.</t>
+  </si>
+  <si>
+    <t>Conduct a visual inspection for any signs of damaged gaskets or leaks along the boom structure.</t>
+  </si>
+  <si>
+    <t>Carefully examine all hydraulic hoses for indicators such as bubbling, dry-rotting, cracking or abrasion that could lead to leaks or inefficiencies.</t>
+  </si>
+  <si>
+    <t>Inspect the switchover cylinders to ensure they work properly and are free of defects.</t>
+  </si>
+  <si>
+    <t>Check the pretension on the cutting ring, guaranteeing it’s adjusted correctly for optimal performance.</t>
+  </si>
+  <si>
+    <t>Scrutinize the truck’s brake pads and air lines and assess the tension on the belts for signs of wear or damage.</t>
+  </si>
+  <si>
+    <t>Perform a brake test by pressurizing the truck to 100 PSI, shutting it off and pressing the gauge until the switch pops out to verify their functionality at low pressures.</t>
+  </si>
+  <si>
+    <t>Perform an oil change in the boom pump to ensure continued lubrication and optimal performance.</t>
+  </si>
+  <si>
+    <t>Consider repacking the differential cylinders if any signs of oil leakage are detected.</t>
+  </si>
+  <si>
+    <t>Conduct a thorough inspection of the water tank to identify wear, fatigue or potential issues.</t>
+  </si>
+  <si>
+    <t>Check for leaks and ensure the water levels in the wash box are adequate for efficient cleaning operations.</t>
+  </si>
+  <si>
+    <t>Replace both the boom and primary tank filters to maintain filtration efficiency.</t>
+  </si>
+  <si>
+    <t>Examine the boom hand valves for any signs of leaks and inspect the end caps of the coils for rust.</t>
+  </si>
+  <si>
+    <t>Inspect the blowout hose for indications of dry-rotting, cracking or any other potential problems.</t>
+  </si>
+  <si>
+    <t>Look for leaks in the outriggers, ensuring their integrity for stable operations.</t>
+  </si>
+  <si>
+    <t>Assess the pretension on the outrigger chain to maintain stability during the process.</t>
+  </si>
+  <si>
+    <t>Check and adjust the pretension on the cutting ring for optimal concrete flow.</t>
+  </si>
+  <si>
+    <t>Verify the compression seal inside the cutting ring is intact to prevent potential leaks.</t>
+  </si>
+  <si>
+    <t>Conduct a comprehensive inspection of the wireless control system to ensure reliable remote operation.</t>
+  </si>
+  <si>
+    <t>Inspect the hard-line box to confirm all components are in good working condition and well-maintained.</t>
+  </si>
+  <si>
+    <t>Inspect the belts thoroughly.</t>
+  </si>
+  <si>
+    <t>Check the exhaust pipe system, including the turbocharger and muffler.</t>
+  </si>
+  <si>
+    <t>Ensure there is no play in the output shaft.</t>
+  </si>
+  <si>
+    <t>Make sure the universal joints and carrier bearing are in good shape.</t>
+  </si>
+  <si>
+    <t>Placing Boom: Conduct a thorough inspection of the entire boom.</t>
   </si>
 </sst>
 </file>
@@ -622,16 +796,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -715,65 +889,68 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1123,13 +1300,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -1143,8 +1322,43 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1154,21 +1368,57 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="60.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1177,15 +1427,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="131.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -1194,8 +1444,58 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1205,15 +1505,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="86.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -1234,6 +1534,101 @@
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1243,15 +1638,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -1297,6 +1692,16 @@
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1306,15 +1711,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -1325,6 +1730,11 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1334,15 +1744,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -1353,6 +1763,46 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1364,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
